--- a/ITI/BALP/StructureDefinition-IHE.BasicAudit.PatientRead.xlsx
+++ b/ITI/BALP/StructureDefinition-IHE.BasicAudit.PatientRead.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T10:16:52-05:00</t>
+    <t>2022-10-21T09:04:31-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,10 +85,13 @@
   </si>
   <si>
     <t>A basic AuditEvent profile for when a RESTful Read action happens successfully, and where there is an identifiable Patient subject associated with the read Resource.
-* Given a Resource has a Patient subject
-* And OAuth is used to authorize both app and user
-* When an App requests a RESTful Read to retrieve that Resource
-* Then an AuditEvent following this profile is recorded</t>
+- Given a Resource Read is requested 
+- And that resource has a Patient subject or is otherwise associated with a Patient
+- And the request is authorized
+  - Authorization failures should follow [FHIR core Access Denied](http://hl7.org/fhir/security.html#AccessDenied)
+- When successful
+  - Note a failure AuditEvent may follow this pattern, but would not be a successful outcome and should have an OperationOutcome
+- Then the AuditEvent recorded will conform</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -274,10 +277,6 @@
     <t>Based on IHE-ATNA.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -296,7 +295,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -683,6 +682,10 @@
   </si>
   <si>
     <t>AuditEvent.outcomeDesc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Description of the event outcome</t>
@@ -2221,7 +2224,7 @@
     <col min="1" max="1" width="41.4609375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.15234375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
@@ -2237,28 +2240,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.56640625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="54.15625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="155.37890625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="49.38671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="49.390625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="34.4140625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="40.0" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="40.00390625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2482,16 +2485,16 @@
         <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>86</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>78</v>
@@ -2505,7 +2508,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2516,28 +2519,28 @@
         <v>79</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2587,13 +2590,13 @@
         <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>78</v>
@@ -2622,7 +2625,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2633,25 +2636,25 @@
         <v>79</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>98</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>99</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2702,19 +2705,19 @@
         <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>78</v>
@@ -2737,7 +2740,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2748,28 +2751,28 @@
         <v>79</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>105</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>106</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2819,19 +2822,19 @@
         <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>78</v>
@@ -2854,7 +2857,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2865,7 +2868,7 @@
         <v>79</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>78</v>
@@ -2877,16 +2880,16 @@
         <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2912,43 +2915,43 @@
         <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>116</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>78</v>
@@ -2971,18 +2974,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>78</v>
@@ -2994,16 +2997,16 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>122</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -3053,25 +3056,25 @@
         <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>78</v>
@@ -3088,11 +3091,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -3111,16 +3114,16 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -3170,7 +3173,7 @@
         <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -3188,7 +3191,7 @@
         <v>78</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>78</v>
@@ -3205,11 +3208,11 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -3228,16 +3231,16 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -3287,7 +3290,7 @@
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>79</v>
@@ -3299,13 +3302,13 @@
         <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>78</v>
@@ -3322,11 +3325,11 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -3339,25 +3342,25 @@
         <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>78</v>
@@ -3406,7 +3409,7 @@
         <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>79</v>
@@ -3418,13 +3421,13 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>78</v>
@@ -3441,7 +3444,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3449,32 +3452,32 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="K11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="K11" t="s" s="2">
+      <c r="L11" t="s" s="2">
         <v>148</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>78</v>
@@ -3484,73 +3487,73 @@
         <v>78</v>
       </c>
       <c r="R11" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="S11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W11" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="S11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W11" t="s" s="2">
+      <c r="X11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="X11" t="s" s="2">
+      <c r="Y11" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="Z11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AF11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG11" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="Z11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AG11" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH11" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI11" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ11" t="s" s="2">
+      <c r="AK11" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AK11" t="s" s="2">
+      <c r="AL11" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AM11" t="s" s="2">
         <v>157</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>158</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>159</v>
       </c>
       <c r="AO11" t="s" s="2">
         <v>78</v>
@@ -3558,7 +3561,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3566,7 +3569,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>80</v>
@@ -3578,20 +3581,20 @@
         <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>78</v>
@@ -3616,29 +3619,29 @@
         <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X12" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y12" t="s" s="2">
+      <c r="Z12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA12" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="Z12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="AB12" s="2"/>
       <c r="AC12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3650,19 +3653,19 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>78</v>
@@ -3673,10 +3676,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>78</v>
@@ -3686,39 +3689,39 @@
         <v>79</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>78</v>
+        <v>169</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>78</v>
@@ -3733,14 +3736,14 @@
         <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y13" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="Z13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3757,7 +3760,7 @@
         <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -3769,19 +3772,19 @@
         <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3792,10 +3795,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>78</v>
@@ -3805,39 +3808,39 @@
         <v>79</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>172</v>
+        <v>78</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>78</v>
@@ -3852,14 +3855,14 @@
         <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="Y14" t="s" s="2">
-        <v>165</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>78</v>
       </c>
@@ -3876,7 +3879,7 @@
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
@@ -3888,19 +3891,19 @@
         <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3911,7 +3914,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3922,29 +3925,29 @@
         <v>79</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>78</v>
@@ -3954,70 +3957,70 @@
         <v>78</v>
       </c>
       <c r="R15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="S15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W15" t="s" s="2">
+      <c r="X15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="AM15" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
@@ -4028,7 +4031,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4039,7 +4042,7 @@
         <v>79</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>78</v>
@@ -4051,16 +4054,16 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -4110,42 +4113,42 @@
         <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AK16" t="s" s="2">
+      <c r="AL16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AL16" t="s" s="2">
+      <c r="AM16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AM16" t="s" s="2">
+      <c r="AN16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>192</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4153,34 +4156,34 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J17" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>78</v>
@@ -4229,42 +4232,42 @@
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AL17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>202</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4275,28 +4278,28 @@
         <v>79</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J18" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4322,55 +4325,55 @@
         <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Y18" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>209</v>
-      </c>
       <c r="AM18" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -4381,7 +4384,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4392,19 +4395,19 @@
         <v>79</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>211</v>
@@ -4461,19 +4464,19 @@
         <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>78</v>
@@ -4485,7 +4488,7 @@
         <v>214</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -4516,7 +4519,7 @@
         <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>216</v>
@@ -4554,7 +4557,7 @@
         <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X20" t="s" s="2">
         <v>220</v>
@@ -4590,7 +4593,7 @@
         <v>78</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>222</v>
@@ -4692,13 +4695,13 @@
         <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>228</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4707,7 +4710,7 @@
         <v>78</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>237</v>
@@ -4741,7 +4744,7 @@
         <v>79</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>78</v>
@@ -4753,7 +4756,7 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K22" t="s" s="2">
         <v>244</v>
@@ -4816,7 +4819,7 @@
         <v>79</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>78</v>
@@ -4849,7 +4852,7 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4868,16 +4871,16 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4939,7 +4942,7 @@
         <v>78</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>78</v>
@@ -4979,13 +4982,13 @@
         <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>253</v>
@@ -4994,10 +4997,10 @@
         <v>254</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>78</v>
@@ -5058,13 +5061,13 @@
         <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>78</v>
@@ -5092,7 +5095,7 @@
         <v>79</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>78</v>
@@ -5137,7 +5140,7 @@
         <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X25" t="s" s="2">
         <v>259</v>
@@ -5167,13 +5170,13 @@
         <v>79</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>261</v>
@@ -5292,7 +5295,7 @@
         <v>78</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>78</v>
@@ -5326,16 +5329,16 @@
         <v>79</v>
       </c>
       <c r="F27" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I27" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>278</v>
@@ -5405,13 +5408,13 @@
         <v>79</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>283</v>
@@ -5445,7 +5448,7 @@
         <v>79</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>78</v>
@@ -5457,7 +5460,7 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>289</v>
@@ -5522,13 +5525,13 @@
         <v>79</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>78</v>
@@ -5562,7 +5565,7 @@
         <v>79</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>78</v>
@@ -5574,7 +5577,7 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>295</v>
@@ -5639,13 +5642,13 @@
         <v>79</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>78</v>
@@ -5676,19 +5679,19 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I30" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F30" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>301</v>
@@ -5755,16 +5758,16 @@
         <v>300</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>78</v>
@@ -5798,7 +5801,7 @@
         <v>79</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>78</v>
@@ -5873,13 +5876,13 @@
         <v>79</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>312</v>
@@ -5925,7 +5928,7 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K32" t="s" s="2">
         <v>318</v>
@@ -5998,7 +6001,7 @@
         <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>78</v>
@@ -6032,7 +6035,7 @@
         <v>79</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>78</v>
@@ -6044,7 +6047,7 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>326</v>
@@ -6079,7 +6082,7 @@
         <v>78</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X33" t="s" s="2">
         <v>329</v>
@@ -6109,13 +6112,13 @@
         <v>79</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>78</v>
@@ -6149,7 +6152,7 @@
         <v>79</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>78</v>
@@ -6224,13 +6227,13 @@
         <v>79</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>78</v>
@@ -6264,7 +6267,7 @@
         <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>78</v>
@@ -6276,7 +6279,7 @@
         <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>244</v>
@@ -6339,7 +6342,7 @@
         <v>79</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>78</v>
@@ -6372,7 +6375,7 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6391,16 +6394,16 @@
         <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6462,7 +6465,7 @@
         <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>78</v>
@@ -6502,13 +6505,13 @@
         <v>78</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>253</v>
@@ -6517,10 +6520,10 @@
         <v>254</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>78</v>
@@ -6581,13 +6584,13 @@
         <v>78</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>78</v>
@@ -6615,7 +6618,7 @@
         <v>79</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>78</v>
@@ -6627,7 +6630,7 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>341</v>
@@ -6694,13 +6697,13 @@
         <v>79</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>78</v>
@@ -6734,7 +6737,7 @@
         <v>79</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>78</v>
@@ -6746,7 +6749,7 @@
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>349</v>
@@ -6781,7 +6784,7 @@
         <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X39" t="s" s="2">
         <v>352</v>
@@ -6811,13 +6814,13 @@
         <v>79</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>78</v>
@@ -6898,7 +6901,7 @@
         <v>78</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X40" t="s" s="2">
         <v>220</v>
@@ -6934,7 +6937,7 @@
         <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>78</v>
@@ -6967,10 +6970,10 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>78</v>
@@ -7046,7 +7049,7 @@
         <v>228</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7055,7 +7058,7 @@
         <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>237</v>
@@ -7089,7 +7092,7 @@
         <v>79</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>78</v>
@@ -7101,7 +7104,7 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>244</v>
@@ -7164,7 +7167,7 @@
         <v>79</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>78</v>
@@ -7197,7 +7200,7 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -7216,16 +7219,16 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7287,7 +7290,7 @@
         <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>78</v>
@@ -7327,13 +7330,13 @@
         <v>78</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>253</v>
@@ -7342,10 +7345,10 @@
         <v>254</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>78</v>
@@ -7406,13 +7409,13 @@
         <v>78</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>78</v>
@@ -7437,10 +7440,10 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>78</v>
@@ -7485,7 +7488,7 @@
         <v>78</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X45" t="s" s="2">
         <v>259</v>
@@ -7515,13 +7518,13 @@
         <v>79</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>261</v>
@@ -7640,7 +7643,7 @@
         <v>78</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>78</v>
@@ -7671,19 +7674,19 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>278</v>
@@ -7753,13 +7756,13 @@
         <v>79</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>283</v>
@@ -7793,7 +7796,7 @@
         <v>79</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>78</v>
@@ -7805,7 +7808,7 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>289</v>
@@ -7870,13 +7873,13 @@
         <v>79</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>78</v>
@@ -7910,7 +7913,7 @@
         <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>78</v>
@@ -7922,7 +7925,7 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>295</v>
@@ -7987,13 +7990,13 @@
         <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>78</v>
@@ -8024,19 +8027,19 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J50" t="s" s="2">
         <v>301</v>
@@ -8103,16 +8106,16 @@
         <v>300</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>78</v>
@@ -8146,7 +8149,7 @@
         <v>79</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>78</v>
@@ -8221,13 +8224,13 @@
         <v>79</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>312</v>
@@ -8273,7 +8276,7 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>318</v>
@@ -8346,7 +8349,7 @@
         <v>78</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>78</v>
@@ -8392,7 +8395,7 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>326</v>
@@ -8427,7 +8430,7 @@
         <v>78</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X53" t="s" s="2">
         <v>329</v>
@@ -8457,13 +8460,13 @@
         <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>78</v>
@@ -8494,10 +8497,10 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>78</v>
@@ -8572,13 +8575,13 @@
         <v>79</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>78</v>
@@ -8612,7 +8615,7 @@
         <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>78</v>
@@ -8624,7 +8627,7 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>244</v>
@@ -8687,7 +8690,7 @@
         <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>78</v>
@@ -8720,7 +8723,7 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -8739,16 +8742,16 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K56" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8810,7 +8813,7 @@
         <v>78</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>78</v>
@@ -8850,13 +8853,13 @@
         <v>78</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>253</v>
@@ -8865,10 +8868,10 @@
         <v>254</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>78</v>
@@ -8929,13 +8932,13 @@
         <v>78</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>78</v>
@@ -8963,7 +8966,7 @@
         <v>79</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>78</v>
@@ -8975,7 +8978,7 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>341</v>
@@ -9042,13 +9045,13 @@
         <v>79</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>78</v>
@@ -9082,7 +9085,7 @@
         <v>79</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>78</v>
@@ -9094,7 +9097,7 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K59" t="s" s="2">
         <v>349</v>
@@ -9129,7 +9132,7 @@
         <v>78</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X59" t="s" s="2">
         <v>352</v>
@@ -9159,13 +9162,13 @@
         <v>79</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>78</v>
@@ -9246,7 +9249,7 @@
         <v>78</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X60" t="s" s="2">
         <v>220</v>
@@ -9282,7 +9285,7 @@
         <v>78</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>78</v>
@@ -9315,10 +9318,10 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>78</v>
@@ -9394,7 +9397,7 @@
         <v>228</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9403,7 +9406,7 @@
         <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>237</v>
@@ -9437,7 +9440,7 @@
         <v>79</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>78</v>
@@ -9449,7 +9452,7 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>244</v>
@@ -9512,7 +9515,7 @@
         <v>79</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>78</v>
@@ -9545,7 +9548,7 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9564,16 +9567,16 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9635,7 +9638,7 @@
         <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>78</v>
@@ -9675,13 +9678,13 @@
         <v>78</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>253</v>
@@ -9690,10 +9693,10 @@
         <v>254</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>78</v>
@@ -9754,13 +9757,13 @@
         <v>78</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>78</v>
@@ -9785,10 +9788,10 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>78</v>
@@ -9833,7 +9836,7 @@
         <v>78</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X65" t="s" s="2">
         <v>259</v>
@@ -9863,13 +9866,13 @@
         <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>261</v>
@@ -9988,7 +9991,7 @@
         <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>78</v>
@@ -10019,19 +10022,19 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I67" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F67" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I67" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J67" t="s" s="2">
         <v>278</v>
@@ -10101,13 +10104,13 @@
         <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>283</v>
@@ -10141,7 +10144,7 @@
         <v>79</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>78</v>
@@ -10153,7 +10156,7 @@
         <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>289</v>
@@ -10218,13 +10221,13 @@
         <v>79</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>78</v>
@@ -10258,7 +10261,7 @@
         <v>79</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>78</v>
@@ -10270,7 +10273,7 @@
         <v>78</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>295</v>
@@ -10335,13 +10338,13 @@
         <v>79</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>78</v>
@@ -10372,19 +10375,19 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I70" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F70" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H70" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I70" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>301</v>
@@ -10451,16 +10454,16 @@
         <v>300</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>78</v>
@@ -10494,7 +10497,7 @@
         <v>79</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>78</v>
@@ -10569,13 +10572,13 @@
         <v>79</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>312</v>
@@ -10621,7 +10624,7 @@
         <v>78</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>318</v>
@@ -10694,7 +10697,7 @@
         <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>78</v>
@@ -10740,7 +10743,7 @@
         <v>78</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>326</v>
@@ -10775,7 +10778,7 @@
         <v>78</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X73" t="s" s="2">
         <v>329</v>
@@ -10805,13 +10808,13 @@
         <v>79</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>78</v>
@@ -10842,10 +10845,10 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>78</v>
@@ -10920,13 +10923,13 @@
         <v>79</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>78</v>
@@ -10960,7 +10963,7 @@
         <v>79</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>78</v>
@@ -10972,7 +10975,7 @@
         <v>78</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>244</v>
@@ -11035,7 +11038,7 @@
         <v>79</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>78</v>
@@ -11068,7 +11071,7 @@
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -11087,16 +11090,16 @@
         <v>78</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K76" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
@@ -11158,7 +11161,7 @@
         <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>78</v>
@@ -11198,13 +11201,13 @@
         <v>78</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K77" t="s" s="2">
         <v>253</v>
@@ -11213,10 +11216,10 @@
         <v>254</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>78</v>
@@ -11277,13 +11280,13 @@
         <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>78</v>
@@ -11311,7 +11314,7 @@
         <v>79</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>78</v>
@@ -11323,7 +11326,7 @@
         <v>78</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>341</v>
@@ -11390,13 +11393,13 @@
         <v>79</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>78</v>
@@ -11430,7 +11433,7 @@
         <v>79</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>78</v>
@@ -11442,7 +11445,7 @@
         <v>78</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>349</v>
@@ -11477,7 +11480,7 @@
         <v>78</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X79" t="s" s="2">
         <v>352</v>
@@ -11507,13 +11510,13 @@
         <v>79</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>78</v>
@@ -11594,7 +11597,7 @@
         <v>78</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X80" t="s" s="2">
         <v>220</v>
@@ -11630,7 +11633,7 @@
         <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>78</v>
@@ -11666,7 +11669,7 @@
         <v>79</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>78</v>
@@ -11742,7 +11745,7 @@
         <v>228</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11751,7 +11754,7 @@
         <v>78</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>237</v>
@@ -11785,7 +11788,7 @@
         <v>79</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>78</v>
@@ -11797,7 +11800,7 @@
         <v>78</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>244</v>
@@ -11860,7 +11863,7 @@
         <v>79</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>78</v>
@@ -11893,7 +11896,7 @@
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -11912,16 +11915,16 @@
         <v>78</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L83" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -11983,7 +11986,7 @@
         <v>78</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>78</v>
@@ -12023,13 +12026,13 @@
         <v>78</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>253</v>
@@ -12038,10 +12041,10 @@
         <v>254</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>78</v>
@@ -12102,13 +12105,13 @@
         <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>78</v>
@@ -12133,10 +12136,10 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>78</v>
@@ -12181,7 +12184,7 @@
         <v>78</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X85" t="s" s="2">
         <v>259</v>
@@ -12211,13 +12214,13 @@
         <v>79</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>261</v>
@@ -12254,7 +12257,7 @@
         <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>78</v>
@@ -12336,7 +12339,7 @@
         <v>78</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>78</v>
@@ -12367,19 +12370,19 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I87" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J87" t="s" s="2">
         <v>278</v>
@@ -12449,13 +12452,13 @@
         <v>79</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>283</v>
@@ -12489,7 +12492,7 @@
         <v>79</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>78</v>
@@ -12501,7 +12504,7 @@
         <v>78</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K88" t="s" s="2">
         <v>289</v>
@@ -12566,13 +12569,13 @@
         <v>79</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>78</v>
@@ -12606,11 +12609,11 @@
         <v>79</v>
       </c>
       <c r="F89" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G89" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G89" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="H89" t="s" s="2">
         <v>78</v>
       </c>
@@ -12618,7 +12621,7 @@
         <v>78</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K89" t="s" s="2">
         <v>295</v>
@@ -12683,13 +12686,13 @@
         <v>79</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>78</v>
@@ -12720,19 +12723,19 @@
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I90" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F90" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H90" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I90" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J90" t="s" s="2">
         <v>301</v>
@@ -12799,16 +12802,16 @@
         <v>300</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>78</v>
@@ -12842,7 +12845,7 @@
         <v>79</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>78</v>
@@ -12917,13 +12920,13 @@
         <v>79</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>312</v>
@@ -12969,7 +12972,7 @@
         <v>78</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K92" t="s" s="2">
         <v>318</v>
@@ -13042,7 +13045,7 @@
         <v>78</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>78</v>
@@ -13088,7 +13091,7 @@
         <v>78</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K93" t="s" s="2">
         <v>326</v>
@@ -13123,7 +13126,7 @@
         <v>78</v>
       </c>
       <c r="W93" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X93" t="s" s="2">
         <v>329</v>
@@ -13153,13 +13156,13 @@
         <v>79</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ93" t="s" s="2">
         <v>78</v>
@@ -13268,13 +13271,13 @@
         <v>79</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>78</v>
@@ -13308,7 +13311,7 @@
         <v>79</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>78</v>
@@ -13320,7 +13323,7 @@
         <v>78</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K95" t="s" s="2">
         <v>244</v>
@@ -13383,7 +13386,7 @@
         <v>79</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>78</v>
@@ -13416,7 +13419,7 @@
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -13435,16 +13438,16 @@
         <v>78</v>
       </c>
       <c r="J96" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K96" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K96" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -13506,7 +13509,7 @@
         <v>78</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ96" t="s" s="2">
         <v>78</v>
@@ -13546,13 +13549,13 @@
         <v>78</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>253</v>
@@ -13561,10 +13564,10 @@
         <v>254</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>78</v>
@@ -13625,13 +13628,13 @@
         <v>78</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>78</v>
@@ -13659,7 +13662,7 @@
         <v>79</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>78</v>
@@ -13671,7 +13674,7 @@
         <v>78</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K98" t="s" s="2">
         <v>341</v>
@@ -13738,13 +13741,13 @@
         <v>79</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI98" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ98" t="s" s="2">
         <v>78</v>
@@ -13778,7 +13781,7 @@
         <v>79</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>78</v>
@@ -13790,7 +13793,7 @@
         <v>78</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>349</v>
@@ -13825,7 +13828,7 @@
         <v>78</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X99" t="s" s="2">
         <v>352</v>
@@ -13855,13 +13858,13 @@
         <v>79</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ99" t="s" s="2">
         <v>78</v>
@@ -13898,7 +13901,7 @@
         <v>80</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>78</v>
@@ -13942,7 +13945,7 @@
         <v>78</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X100" t="s" s="2">
         <v>220</v>
@@ -13978,7 +13981,7 @@
         <v>78</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>78</v>
@@ -14009,13 +14012,13 @@
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G101" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>78</v>
@@ -14088,16 +14091,16 @@
         <v>368</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>78</v>
@@ -14131,7 +14134,7 @@
         <v>79</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>78</v>
@@ -14143,7 +14146,7 @@
         <v>78</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>244</v>
@@ -14206,7 +14209,7 @@
         <v>79</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>78</v>
@@ -14239,7 +14242,7 @@
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -14258,16 +14261,16 @@
         <v>78</v>
       </c>
       <c r="J103" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K103" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L103" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -14329,7 +14332,7 @@
         <v>78</v>
       </c>
       <c r="AI103" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ103" t="s" s="2">
         <v>78</v>
@@ -14369,13 +14372,13 @@
         <v>78</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K104" t="s" s="2">
         <v>253</v>
@@ -14384,10 +14387,10 @@
         <v>254</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>78</v>
@@ -14448,13 +14451,13 @@
         <v>78</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>78</v>
@@ -14482,7 +14485,7 @@
         <v>79</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>78</v>
@@ -14494,7 +14497,7 @@
         <v>78</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K105" t="s" s="2">
         <v>380</v>
@@ -14559,13 +14562,13 @@
         <v>79</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>78</v>
@@ -14596,19 +14599,19 @@
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I106" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J106" t="s" s="2">
         <v>278</v>
@@ -14673,16 +14676,16 @@
         <v>385</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>78</v>
@@ -14728,7 +14731,7 @@
         <v>78</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K107" t="s" s="2">
         <v>392</v>
@@ -14763,7 +14766,7 @@
         <v>78</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X107" t="s" s="2">
         <v>395</v>
@@ -14799,7 +14802,7 @@
         <v>78</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>78</v>
@@ -14901,7 +14904,7 @@
         <v>78</v>
       </c>
       <c r="AD108" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE108" t="s" s="2">
         <v>399</v>
@@ -14928,7 +14931,7 @@
         <v>407</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>408</v>
@@ -14950,7 +14953,7 @@
         <v>79</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>78</v>
@@ -14962,7 +14965,7 @@
         <v>78</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K109" t="s" s="2">
         <v>244</v>
@@ -15025,7 +15028,7 @@
         <v>79</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>78</v>
@@ -15058,7 +15061,7 @@
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -15077,16 +15080,16 @@
         <v>78</v>
       </c>
       <c r="J110" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K110" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L110" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
@@ -15148,7 +15151,7 @@
         <v>78</v>
       </c>
       <c r="AI110" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ110" t="s" s="2">
         <v>78</v>
@@ -15188,13 +15191,13 @@
         <v>78</v>
       </c>
       <c r="H111" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K111" t="s" s="2">
         <v>253</v>
@@ -15203,10 +15206,10 @@
         <v>254</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O111" t="s" s="2">
         <v>78</v>
@@ -15267,13 +15270,13 @@
         <v>78</v>
       </c>
       <c r="AI111" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ111" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>78</v>
@@ -15301,16 +15304,16 @@
         <v>79</v>
       </c>
       <c r="F112" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H112" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I112" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J112" t="s" s="2">
         <v>414</v>
@@ -15376,13 +15379,13 @@
         <v>79</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ112" t="s" s="2">
         <v>78</v>
@@ -15394,7 +15397,7 @@
         <v>417</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>78</v>
@@ -15416,7 +15419,7 @@
         <v>79</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>78</v>
@@ -15428,7 +15431,7 @@
         <v>78</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K113" t="s" s="2">
         <v>420</v>
@@ -15465,7 +15468,7 @@
         <v>78</v>
       </c>
       <c r="W113" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X113" t="s" s="2">
         <v>424</v>
@@ -15495,13 +15498,13 @@
         <v>79</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI113" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ113" t="s" s="2">
         <v>78</v>
@@ -15513,7 +15516,7 @@
         <v>427</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>428</v>
@@ -15535,7 +15538,7 @@
         <v>79</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G114" t="s" s="2">
         <v>78</v>
@@ -15547,7 +15550,7 @@
         <v>78</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K114" t="s" s="2">
         <v>431</v>
@@ -15582,7 +15585,7 @@
         <v>78</v>
       </c>
       <c r="W114" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X114" t="s" s="2">
         <v>434</v>
@@ -15612,13 +15615,13 @@
         <v>79</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI114" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ114" t="s" s="2">
         <v>78</v>
@@ -15652,7 +15655,7 @@
         <v>79</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G115" t="s" s="2">
         <v>78</v>
@@ -15664,7 +15667,7 @@
         <v>78</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K115" t="s" s="2">
         <v>441</v>
@@ -15701,7 +15704,7 @@
         <v>78</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X115" t="s" s="2">
         <v>442</v>
@@ -15731,13 +15734,13 @@
         <v>79</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ115" t="s" s="2">
         <v>78</v>
@@ -15783,7 +15786,7 @@
         <v>78</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K116" t="s" s="2">
         <v>450</v>
@@ -15820,7 +15823,7 @@
         <v>78</v>
       </c>
       <c r="W116" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X116" t="s" s="2">
         <v>454</v>
@@ -15856,7 +15859,7 @@
         <v>78</v>
       </c>
       <c r="AI116" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ116" t="s" s="2">
         <v>78</v>
@@ -15890,19 +15893,19 @@
         <v>79</v>
       </c>
       <c r="F117" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I117" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J117" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K117" t="s" s="2">
         <v>459</v>
@@ -15969,13 +15972,13 @@
         <v>79</v>
       </c>
       <c r="AG117" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH117" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI117" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ117" t="s" s="2">
         <v>78</v>
@@ -16009,7 +16012,7 @@
         <v>79</v>
       </c>
       <c r="F118" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G118" t="s" s="2">
         <v>78</v>
@@ -16021,7 +16024,7 @@
         <v>78</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K118" t="s" s="2">
         <v>468</v>
@@ -16086,13 +16089,13 @@
         <v>79</v>
       </c>
       <c r="AG118" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH118" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI118" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ118" t="s" s="2">
         <v>78</v>
@@ -16126,16 +16129,16 @@
         <v>79</v>
       </c>
       <c r="F119" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I119" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J119" t="s" s="2">
         <v>473</v>
@@ -16205,13 +16208,13 @@
         <v>79</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ119" t="s" s="2">
         <v>78</v>
@@ -16328,7 +16331,7 @@
         <v>78</v>
       </c>
       <c r="AI120" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ120" t="s" s="2">
         <v>78</v>
@@ -16362,7 +16365,7 @@
         <v>79</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>78</v>
@@ -16374,7 +16377,7 @@
         <v>78</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K121" t="s" s="2">
         <v>244</v>
@@ -16437,7 +16440,7 @@
         <v>79</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>78</v>
@@ -16470,7 +16473,7 @@
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -16489,16 +16492,16 @@
         <v>78</v>
       </c>
       <c r="J122" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K122" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K122" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L122" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -16560,7 +16563,7 @@
         <v>78</v>
       </c>
       <c r="AI122" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ122" t="s" s="2">
         <v>78</v>
@@ -16600,13 +16603,13 @@
         <v>78</v>
       </c>
       <c r="H123" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K123" t="s" s="2">
         <v>253</v>
@@ -16615,10 +16618,10 @@
         <v>254</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>78</v>
@@ -16679,13 +16682,13 @@
         <v>78</v>
       </c>
       <c r="AI123" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ123" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>78</v>
@@ -16710,10 +16713,10 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>78</v>
@@ -16725,7 +16728,7 @@
         <v>78</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K124" t="s" s="2">
         <v>490</v>
@@ -16785,16 +16788,16 @@
         <v>489</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG124" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH124" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI124" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ124" t="s" s="2">
         <v>78</v>
@@ -16825,10 +16828,10 @@
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G125" t="s" s="2">
         <v>78</v>
@@ -16904,16 +16907,16 @@
         <v>493</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG125" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH125" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI125" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ125" t="s" s="2">
         <v>78</v>
@@ -16949,7 +16952,7 @@
         <v>79</v>
       </c>
       <c r="F126" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>78</v>
@@ -17046,7 +17049,7 @@
         <v>407</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>408</v>
@@ -17068,7 +17071,7 @@
         <v>79</v>
       </c>
       <c r="F127" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G127" t="s" s="2">
         <v>78</v>
@@ -17080,7 +17083,7 @@
         <v>78</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K127" t="s" s="2">
         <v>244</v>
@@ -17143,7 +17146,7 @@
         <v>79</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>78</v>
@@ -17176,7 +17179,7 @@
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -17195,16 +17198,16 @@
         <v>78</v>
       </c>
       <c r="J128" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K128" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K128" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L128" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -17266,7 +17269,7 @@
         <v>78</v>
       </c>
       <c r="AI128" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ128" t="s" s="2">
         <v>78</v>
@@ -17306,13 +17309,13 @@
         <v>78</v>
       </c>
       <c r="H129" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K129" t="s" s="2">
         <v>253</v>
@@ -17321,10 +17324,10 @@
         <v>254</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N129" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>78</v>
@@ -17385,13 +17388,13 @@
         <v>78</v>
       </c>
       <c r="AI129" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ129" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>78</v>
@@ -17419,16 +17422,16 @@
         <v>79</v>
       </c>
       <c r="F130" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I130" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H130" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I130" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J130" t="s" s="2">
         <v>414</v>
@@ -17494,13 +17497,13 @@
         <v>79</v>
       </c>
       <c r="AG130" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH130" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI130" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ130" t="s" s="2">
         <v>78</v>
@@ -17512,7 +17515,7 @@
         <v>417</v>
       </c>
       <c r="AM130" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN130" t="s" s="2">
         <v>78</v>
@@ -17534,7 +17537,7 @@
         <v>79</v>
       </c>
       <c r="F131" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G131" t="s" s="2">
         <v>78</v>
@@ -17546,7 +17549,7 @@
         <v>78</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K131" t="s" s="2">
         <v>244</v>
@@ -17609,7 +17612,7 @@
         <v>79</v>
       </c>
       <c r="AG131" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH131" t="s" s="2">
         <v>78</v>
@@ -17642,7 +17645,7 @@
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -17661,16 +17664,16 @@
         <v>78</v>
       </c>
       <c r="J132" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K132" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K132" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L132" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
@@ -17717,7 +17720,7 @@
         <v>78</v>
       </c>
       <c r="AD132" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE132" t="s" s="2">
         <v>250</v>
@@ -17732,7 +17735,7 @@
         <v>78</v>
       </c>
       <c r="AI132" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ132" t="s" s="2">
         <v>78</v>
@@ -17766,19 +17769,19 @@
         <v>79</v>
       </c>
       <c r="F133" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I133" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H133" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I133" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J133" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K133" t="s" s="2">
         <v>507</v>
@@ -17843,19 +17846,19 @@
         <v>79</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>511</v>
       </c>
       <c r="AI133" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ133" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK133" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL133" t="s" s="2">
         <v>78</v>
@@ -17883,19 +17886,19 @@
         <v>79</v>
       </c>
       <c r="F134" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I134" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H134" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I134" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J134" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K134" t="s" s="2">
         <v>513</v>
@@ -17930,7 +17933,7 @@
         <v>78</v>
       </c>
       <c r="W134" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X134" t="s" s="2">
         <v>516</v>
@@ -17960,19 +17963,19 @@
         <v>79</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI134" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ134" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK134" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL134" t="s" s="2">
         <v>78</v>
@@ -18000,16 +18003,16 @@
         <v>79</v>
       </c>
       <c r="F135" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I135" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H135" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I135" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J135" t="s" s="2">
         <v>520</v>
@@ -18077,13 +18080,13 @@
         <v>79</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI135" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ135" t="s" s="2">
         <v>78</v>
@@ -18117,7 +18120,7 @@
         <v>79</v>
       </c>
       <c r="F136" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G136" t="s" s="2">
         <v>78</v>
@@ -18129,7 +18132,7 @@
         <v>78</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K136" t="s" s="2">
         <v>244</v>
@@ -18192,7 +18195,7 @@
         <v>79</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>78</v>
@@ -18225,7 +18228,7 @@
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -18244,16 +18247,16 @@
         <v>78</v>
       </c>
       <c r="J137" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K137" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K137" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L137" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" t="s" s="2">
@@ -18300,7 +18303,7 @@
         <v>78</v>
       </c>
       <c r="AD137" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE137" t="s" s="2">
         <v>250</v>
@@ -18315,7 +18318,7 @@
         <v>78</v>
       </c>
       <c r="AI137" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ137" t="s" s="2">
         <v>78</v>
@@ -18349,19 +18352,19 @@
         <v>79</v>
       </c>
       <c r="F138" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H138" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G138" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H138" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="I138" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K138" t="s" s="2">
         <v>529</v>
@@ -18398,7 +18401,7 @@
         <v>78</v>
       </c>
       <c r="W138" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X138" t="s" s="2">
         <v>533</v>
@@ -18428,13 +18431,13 @@
         <v>79</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI138" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ138" t="s" s="2">
         <v>78</v>
@@ -18468,16 +18471,16 @@
         <v>79</v>
       </c>
       <c r="F139" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I139" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H139" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I139" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J139" t="s" s="2">
         <v>216</v>
@@ -18517,7 +18520,7 @@
         <v>78</v>
       </c>
       <c r="W139" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X139" t="s" s="2">
         <v>542</v>
@@ -18547,13 +18550,13 @@
         <v>79</v>
       </c>
       <c r="AG139" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH139" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI139" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ139" t="s" s="2">
         <v>78</v>
@@ -18587,19 +18590,19 @@
         <v>79</v>
       </c>
       <c r="F140" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I140" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H140" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I140" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J140" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K140" t="s" s="2">
         <v>546</v>
@@ -18666,13 +18669,13 @@
         <v>79</v>
       </c>
       <c r="AG140" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH140" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI140" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ140" t="s" s="2">
         <v>78</v>
@@ -18703,22 +18706,22 @@
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F141" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I141" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="F141" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H141" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I141" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J141" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K141" t="s" s="2">
         <v>554</v>
@@ -18783,13 +18786,13 @@
         <v>79</v>
       </c>
       <c r="AG141" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH141" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI141" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ141" t="s" s="2">
         <v>78</v>
@@ -18823,19 +18826,19 @@
         <v>79</v>
       </c>
       <c r="F142" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I142" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H142" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I142" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J142" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K142" t="s" s="2">
         <v>561</v>
@@ -18898,13 +18901,13 @@
         <v>79</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI142" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ142" t="s" s="2">
         <v>78</v>
@@ -18938,16 +18941,16 @@
         <v>79</v>
       </c>
       <c r="F143" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I143" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H143" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I143" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J143" t="s" s="2">
         <v>566</v>
@@ -19015,13 +19018,13 @@
         <v>79</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI143" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ143" t="s" s="2">
         <v>78</v>
@@ -19055,19 +19058,19 @@
         <v>79</v>
       </c>
       <c r="F144" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I144" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H144" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I144" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J144" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K144" t="s" s="2">
         <v>573</v>
@@ -19132,19 +19135,19 @@
         <v>79</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI144" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ144" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL144" t="s" s="2">
         <v>78</v>
@@ -19169,10 +19172,10 @@
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F145" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G145" t="s" s="2">
         <v>78</v>
@@ -19184,7 +19187,7 @@
         <v>78</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K145" t="s" s="2">
         <v>420</v>
@@ -19221,7 +19224,7 @@
         <v>78</v>
       </c>
       <c r="W145" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X145" t="s" s="2">
         <v>424</v>
@@ -19251,13 +19254,13 @@
         <v>79</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI145" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ145" t="s" s="2">
         <v>78</v>
@@ -19269,7 +19272,7 @@
         <v>427</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>428</v>
@@ -19291,7 +19294,7 @@
         <v>79</v>
       </c>
       <c r="F146" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G146" t="s" s="2">
         <v>78</v>
@@ -19303,7 +19306,7 @@
         <v>78</v>
       </c>
       <c r="J146" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K146" t="s" s="2">
         <v>431</v>
@@ -19338,7 +19341,7 @@
         <v>78</v>
       </c>
       <c r="W146" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X146" t="s" s="2">
         <v>434</v>
@@ -19368,13 +19371,13 @@
         <v>79</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI146" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ146" t="s" s="2">
         <v>78</v>
@@ -19408,7 +19411,7 @@
         <v>79</v>
       </c>
       <c r="F147" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G147" t="s" s="2">
         <v>78</v>
@@ -19420,7 +19423,7 @@
         <v>78</v>
       </c>
       <c r="J147" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K147" t="s" s="2">
         <v>441</v>
@@ -19457,7 +19460,7 @@
         <v>78</v>
       </c>
       <c r="W147" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X147" t="s" s="2">
         <v>442</v>
@@ -19487,13 +19490,13 @@
         <v>79</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI147" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ147" t="s" s="2">
         <v>78</v>
@@ -19539,7 +19542,7 @@
         <v>78</v>
       </c>
       <c r="J148" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K148" t="s" s="2">
         <v>450</v>
@@ -19576,7 +19579,7 @@
         <v>78</v>
       </c>
       <c r="W148" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X148" t="s" s="2">
         <v>454</v>
@@ -19612,7 +19615,7 @@
         <v>78</v>
       </c>
       <c r="AI148" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ148" t="s" s="2">
         <v>78</v>
@@ -19646,19 +19649,19 @@
         <v>79</v>
       </c>
       <c r="F149" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H149" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I149" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H149" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I149" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J149" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K149" t="s" s="2">
         <v>459</v>
@@ -19725,13 +19728,13 @@
         <v>79</v>
       </c>
       <c r="AG149" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH149" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI149" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ149" t="s" s="2">
         <v>78</v>
@@ -19765,7 +19768,7 @@
         <v>79</v>
       </c>
       <c r="F150" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G150" t="s" s="2">
         <v>78</v>
@@ -19777,7 +19780,7 @@
         <v>78</v>
       </c>
       <c r="J150" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K150" t="s" s="2">
         <v>468</v>
@@ -19842,13 +19845,13 @@
         <v>79</v>
       </c>
       <c r="AG150" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH150" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI150" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ150" t="s" s="2">
         <v>78</v>
@@ -19882,16 +19885,16 @@
         <v>79</v>
       </c>
       <c r="F151" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G151" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H151" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I151" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H151" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I151" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J151" t="s" s="2">
         <v>473</v>
@@ -19961,13 +19964,13 @@
         <v>79</v>
       </c>
       <c r="AG151" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH151" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI151" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ151" t="s" s="2">
         <v>78</v>
@@ -20084,7 +20087,7 @@
         <v>78</v>
       </c>
       <c r="AI152" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ152" t="s" s="2">
         <v>78</v>
@@ -20118,7 +20121,7 @@
         <v>79</v>
       </c>
       <c r="F153" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G153" t="s" s="2">
         <v>78</v>
@@ -20130,7 +20133,7 @@
         <v>78</v>
       </c>
       <c r="J153" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K153" t="s" s="2">
         <v>244</v>
@@ -20193,7 +20196,7 @@
         <v>79</v>
       </c>
       <c r="AG153" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH153" t="s" s="2">
         <v>78</v>
@@ -20226,7 +20229,7 @@
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" t="s" s="2">
@@ -20245,16 +20248,16 @@
         <v>78</v>
       </c>
       <c r="J154" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K154" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K154" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L154" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
@@ -20316,7 +20319,7 @@
         <v>78</v>
       </c>
       <c r="AI154" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ154" t="s" s="2">
         <v>78</v>
@@ -20356,13 +20359,13 @@
         <v>78</v>
       </c>
       <c r="H155" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J155" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K155" t="s" s="2">
         <v>253</v>
@@ -20371,10 +20374,10 @@
         <v>254</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>78</v>
@@ -20435,13 +20438,13 @@
         <v>78</v>
       </c>
       <c r="AI155" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ155" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL155" t="s" s="2">
         <v>78</v>
@@ -20466,10 +20469,10 @@
       </c>
       <c r="D156" s="2"/>
       <c r="E156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G156" t="s" s="2">
         <v>78</v>
@@ -20481,7 +20484,7 @@
         <v>78</v>
       </c>
       <c r="J156" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K156" t="s" s="2">
         <v>490</v>
@@ -20541,16 +20544,16 @@
         <v>489</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG156" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH156" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI156" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ156" t="s" s="2">
         <v>78</v>
@@ -20581,10 +20584,10 @@
       </c>
       <c r="D157" s="2"/>
       <c r="E157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G157" t="s" s="2">
         <v>78</v>
@@ -20660,16 +20663,16 @@
         <v>493</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG157" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH157" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI157" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ157" t="s" s="2">
         <v>78</v>
@@ -20702,10 +20705,10 @@
       </c>
       <c r="D158" s="2"/>
       <c r="E158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F158" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>78</v>
@@ -20802,7 +20805,7 @@
         <v>407</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>408</v>
@@ -20824,7 +20827,7 @@
         <v>79</v>
       </c>
       <c r="F159" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G159" t="s" s="2">
         <v>78</v>
@@ -20836,7 +20839,7 @@
         <v>78</v>
       </c>
       <c r="J159" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K159" t="s" s="2">
         <v>244</v>
@@ -20899,7 +20902,7 @@
         <v>79</v>
       </c>
       <c r="AG159" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH159" t="s" s="2">
         <v>78</v>
@@ -20932,7 +20935,7 @@
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" t="s" s="2">
@@ -20951,16 +20954,16 @@
         <v>78</v>
       </c>
       <c r="J160" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K160" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K160" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L160" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
@@ -21022,7 +21025,7 @@
         <v>78</v>
       </c>
       <c r="AI160" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ160" t="s" s="2">
         <v>78</v>
@@ -21062,13 +21065,13 @@
         <v>78</v>
       </c>
       <c r="H161" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I161" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K161" t="s" s="2">
         <v>253</v>
@@ -21077,10 +21080,10 @@
         <v>254</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O161" t="s" s="2">
         <v>78</v>
@@ -21141,13 +21144,13 @@
         <v>78</v>
       </c>
       <c r="AI161" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ161" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK161" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL161" t="s" s="2">
         <v>78</v>
@@ -21172,19 +21175,19 @@
       </c>
       <c r="D162" s="2"/>
       <c r="E162" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F162" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G162" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H162" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I162" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F162" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G162" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H162" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I162" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J162" t="s" s="2">
         <v>414</v>
@@ -21250,13 +21253,13 @@
         <v>79</v>
       </c>
       <c r="AG162" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH162" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI162" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ162" t="s" s="2">
         <v>78</v>
@@ -21268,7 +21271,7 @@
         <v>417</v>
       </c>
       <c r="AM162" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN162" t="s" s="2">
         <v>78</v>
@@ -21287,10 +21290,10 @@
       </c>
       <c r="D163" s="2"/>
       <c r="E163" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F163" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G163" t="s" s="2">
         <v>78</v>
@@ -21302,7 +21305,7 @@
         <v>78</v>
       </c>
       <c r="J163" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K163" t="s" s="2">
         <v>420</v>
@@ -21339,7 +21342,7 @@
         <v>78</v>
       </c>
       <c r="W163" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X163" t="s" s="2">
         <v>424</v>
@@ -21369,13 +21372,13 @@
         <v>79</v>
       </c>
       <c r="AG163" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH163" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI163" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ163" t="s" s="2">
         <v>78</v>
@@ -21387,7 +21390,7 @@
         <v>427</v>
       </c>
       <c r="AM163" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN163" t="s" s="2">
         <v>428</v>
@@ -21409,7 +21412,7 @@
         <v>79</v>
       </c>
       <c r="F164" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G164" t="s" s="2">
         <v>78</v>
@@ -21421,7 +21424,7 @@
         <v>78</v>
       </c>
       <c r="J164" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K164" t="s" s="2">
         <v>431</v>
@@ -21456,7 +21459,7 @@
         <v>78</v>
       </c>
       <c r="W164" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="X164" s="2"/>
       <c r="Y164" t="s" s="2">
@@ -21484,13 +21487,13 @@
         <v>79</v>
       </c>
       <c r="AG164" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH164" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI164" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ164" t="s" s="2">
         <v>78</v>
@@ -21524,7 +21527,7 @@
         <v>79</v>
       </c>
       <c r="F165" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G165" t="s" s="2">
         <v>78</v>
@@ -21536,7 +21539,7 @@
         <v>78</v>
       </c>
       <c r="J165" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K165" t="s" s="2">
         <v>441</v>
@@ -21573,7 +21576,7 @@
         <v>78</v>
       </c>
       <c r="W165" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X165" t="s" s="2">
         <v>442</v>
@@ -21603,13 +21606,13 @@
         <v>79</v>
       </c>
       <c r="AG165" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH165" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI165" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ165" t="s" s="2">
         <v>78</v>
@@ -21655,7 +21658,7 @@
         <v>78</v>
       </c>
       <c r="J166" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K166" t="s" s="2">
         <v>581</v>
@@ -21692,7 +21695,7 @@
         <v>78</v>
       </c>
       <c r="W166" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X166" t="s" s="2">
         <v>454</v>
@@ -21728,7 +21731,7 @@
         <v>78</v>
       </c>
       <c r="AI166" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ166" t="s" s="2">
         <v>78</v>
@@ -21762,19 +21765,19 @@
         <v>79</v>
       </c>
       <c r="F167" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G167" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H167" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I167" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G167" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H167" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I167" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J167" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K167" t="s" s="2">
         <v>459</v>
@@ -21841,13 +21844,13 @@
         <v>79</v>
       </c>
       <c r="AG167" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH167" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI167" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ167" t="s" s="2">
         <v>78</v>
@@ -21881,7 +21884,7 @@
         <v>79</v>
       </c>
       <c r="F168" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G168" t="s" s="2">
         <v>78</v>
@@ -21893,7 +21896,7 @@
         <v>78</v>
       </c>
       <c r="J168" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K168" t="s" s="2">
         <v>468</v>
@@ -21958,13 +21961,13 @@
         <v>79</v>
       </c>
       <c r="AG168" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH168" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI168" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ168" t="s" s="2">
         <v>78</v>
@@ -21998,16 +22001,16 @@
         <v>79</v>
       </c>
       <c r="F169" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G169" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H169" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I169" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H169" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I169" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J169" t="s" s="2">
         <v>473</v>
@@ -22077,13 +22080,13 @@
         <v>79</v>
       </c>
       <c r="AG169" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH169" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI169" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ169" t="s" s="2">
         <v>78</v>
@@ -22200,7 +22203,7 @@
         <v>78</v>
       </c>
       <c r="AI170" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ170" t="s" s="2">
         <v>78</v>
@@ -22234,7 +22237,7 @@
         <v>79</v>
       </c>
       <c r="F171" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G171" t="s" s="2">
         <v>78</v>
@@ -22246,7 +22249,7 @@
         <v>78</v>
       </c>
       <c r="J171" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K171" t="s" s="2">
         <v>244</v>
@@ -22309,7 +22312,7 @@
         <v>79</v>
       </c>
       <c r="AG171" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH171" t="s" s="2">
         <v>78</v>
@@ -22342,7 +22345,7 @@
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" t="s" s="2">
@@ -22361,16 +22364,16 @@
         <v>78</v>
       </c>
       <c r="J172" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K172" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K172" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L172" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" t="s" s="2">
@@ -22432,7 +22435,7 @@
         <v>78</v>
       </c>
       <c r="AI172" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ172" t="s" s="2">
         <v>78</v>
@@ -22472,13 +22475,13 @@
         <v>78</v>
       </c>
       <c r="H173" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I173" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K173" t="s" s="2">
         <v>253</v>
@@ -22487,10 +22490,10 @@
         <v>254</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>78</v>
@@ -22551,13 +22554,13 @@
         <v>78</v>
       </c>
       <c r="AI173" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ173" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL173" t="s" s="2">
         <v>78</v>
@@ -22582,10 +22585,10 @@
       </c>
       <c r="D174" s="2"/>
       <c r="E174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>78</v>
@@ -22597,7 +22600,7 @@
         <v>78</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K174" t="s" s="2">
         <v>490</v>
@@ -22657,16 +22660,16 @@
         <v>489</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG174" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH174" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ174" t="s" s="2">
         <v>78</v>
@@ -22697,10 +22700,10 @@
       </c>
       <c r="D175" s="2"/>
       <c r="E175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G175" t="s" s="2">
         <v>78</v>
@@ -22776,16 +22779,16 @@
         <v>493</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG175" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH175" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI175" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ175" t="s" s="2">
         <v>78</v>
@@ -22818,10 +22821,10 @@
       </c>
       <c r="D176" s="2"/>
       <c r="E176" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F176" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G176" t="s" s="2">
         <v>78</v>
@@ -22918,7 +22921,7 @@
         <v>407</v>
       </c>
       <c r="AM176" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN176" t="s" s="2">
         <v>408</v>
@@ -22940,7 +22943,7 @@
         <v>79</v>
       </c>
       <c r="F177" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G177" t="s" s="2">
         <v>78</v>
@@ -22952,7 +22955,7 @@
         <v>78</v>
       </c>
       <c r="J177" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K177" t="s" s="2">
         <v>244</v>
@@ -23015,7 +23018,7 @@
         <v>79</v>
       </c>
       <c r="AG177" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH177" t="s" s="2">
         <v>78</v>
@@ -23048,7 +23051,7 @@
       </c>
       <c r="B178" s="2"/>
       <c r="C178" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" t="s" s="2">
@@ -23067,16 +23070,16 @@
         <v>78</v>
       </c>
       <c r="J178" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K178" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K178" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L178" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
@@ -23138,7 +23141,7 @@
         <v>78</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ178" t="s" s="2">
         <v>78</v>
@@ -23178,13 +23181,13 @@
         <v>78</v>
       </c>
       <c r="H179" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I179" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K179" t="s" s="2">
         <v>253</v>
@@ -23193,10 +23196,10 @@
         <v>254</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O179" t="s" s="2">
         <v>78</v>
@@ -23257,13 +23260,13 @@
         <v>78</v>
       </c>
       <c r="AI179" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ179" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK179" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL179" t="s" s="2">
         <v>78</v>
@@ -23288,19 +23291,19 @@
       </c>
       <c r="D180" s="2"/>
       <c r="E180" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F180" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G180" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H180" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I180" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="F180" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="G180" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H180" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I180" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J180" t="s" s="2">
         <v>583</v>
@@ -23366,13 +23369,13 @@
         <v>79</v>
       </c>
       <c r="AG180" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH180" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ180" t="s" s="2">
         <v>78</v>
@@ -23384,7 +23387,7 @@
         <v>417</v>
       </c>
       <c r="AM180" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN180" t="s" s="2">
         <v>78</v>
@@ -23403,10 +23406,10 @@
       </c>
       <c r="D181" s="2"/>
       <c r="E181" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F181" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G181" t="s" s="2">
         <v>78</v>
@@ -23418,7 +23421,7 @@
         <v>78</v>
       </c>
       <c r="J181" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K181" t="s" s="2">
         <v>420</v>
@@ -23455,7 +23458,7 @@
         <v>78</v>
       </c>
       <c r="W181" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X181" t="s" s="2">
         <v>424</v>
@@ -23485,13 +23488,13 @@
         <v>79</v>
       </c>
       <c r="AG181" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH181" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ181" t="s" s="2">
         <v>78</v>
@@ -23503,7 +23506,7 @@
         <v>427</v>
       </c>
       <c r="AM181" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AN181" t="s" s="2">
         <v>428</v>
@@ -23525,7 +23528,7 @@
         <v>79</v>
       </c>
       <c r="F182" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G182" t="s" s="2">
         <v>78</v>
@@ -23537,7 +23540,7 @@
         <v>78</v>
       </c>
       <c r="J182" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K182" t="s" s="2">
         <v>431</v>
@@ -23572,7 +23575,7 @@
         <v>78</v>
       </c>
       <c r="W182" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X182" t="s" s="2">
         <v>434</v>
@@ -23602,13 +23605,13 @@
         <v>79</v>
       </c>
       <c r="AG182" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH182" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI182" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ182" t="s" s="2">
         <v>78</v>
@@ -23642,7 +23645,7 @@
         <v>79</v>
       </c>
       <c r="F183" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G183" t="s" s="2">
         <v>78</v>
@@ -23654,7 +23657,7 @@
         <v>78</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K183" t="s" s="2">
         <v>441</v>
@@ -23691,7 +23694,7 @@
         <v>78</v>
       </c>
       <c r="W183" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X183" t="s" s="2">
         <v>442</v>
@@ -23721,13 +23724,13 @@
         <v>79</v>
       </c>
       <c r="AG183" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH183" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI183" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ183" t="s" s="2">
         <v>78</v>
@@ -23773,7 +23776,7 @@
         <v>78</v>
       </c>
       <c r="J184" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K184" t="s" s="2">
         <v>450</v>
@@ -23810,7 +23813,7 @@
         <v>78</v>
       </c>
       <c r="W184" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="X184" t="s" s="2">
         <v>454</v>
@@ -23846,7 +23849,7 @@
         <v>78</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ184" t="s" s="2">
         <v>78</v>
@@ -23880,19 +23883,19 @@
         <v>79</v>
       </c>
       <c r="F185" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G185" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H185" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I185" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="G185" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H185" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I185" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="J185" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K185" t="s" s="2">
         <v>459</v>
@@ -23959,13 +23962,13 @@
         <v>79</v>
       </c>
       <c r="AG185" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH185" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI185" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ185" t="s" s="2">
         <v>78</v>
@@ -23999,7 +24002,7 @@
         <v>79</v>
       </c>
       <c r="F186" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G186" t="s" s="2">
         <v>78</v>
@@ -24011,7 +24014,7 @@
         <v>78</v>
       </c>
       <c r="J186" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K186" t="s" s="2">
         <v>468</v>
@@ -24076,13 +24079,13 @@
         <v>79</v>
       </c>
       <c r="AG186" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH186" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI186" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ186" t="s" s="2">
         <v>78</v>
@@ -24116,16 +24119,16 @@
         <v>79</v>
       </c>
       <c r="F187" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H187" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I187" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="G187" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="H187" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I187" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="J187" t="s" s="2">
         <v>473</v>
@@ -24195,13 +24198,13 @@
         <v>79</v>
       </c>
       <c r="AG187" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH187" t="s" s="2">
         <v>463</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>78</v>
@@ -24318,7 +24321,7 @@
         <v>78</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ188" t="s" s="2">
         <v>78</v>
@@ -24352,7 +24355,7 @@
         <v>79</v>
       </c>
       <c r="F189" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G189" t="s" s="2">
         <v>78</v>
@@ -24364,7 +24367,7 @@
         <v>78</v>
       </c>
       <c r="J189" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K189" t="s" s="2">
         <v>244</v>
@@ -24427,7 +24430,7 @@
         <v>79</v>
       </c>
       <c r="AG189" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH189" t="s" s="2">
         <v>78</v>
@@ -24460,7 +24463,7 @@
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" t="s" s="2">
@@ -24479,16 +24482,16 @@
         <v>78</v>
       </c>
       <c r="J190" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K190" t="s" s="2">
         <v>135</v>
-      </c>
-      <c r="K190" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="L190" t="s" s="2">
         <v>249</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" t="s" s="2">
@@ -24550,7 +24553,7 @@
         <v>78</v>
       </c>
       <c r="AI190" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ190" t="s" s="2">
         <v>78</v>
@@ -24590,13 +24593,13 @@
         <v>78</v>
       </c>
       <c r="H191" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I191" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J191" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K191" t="s" s="2">
         <v>253</v>
@@ -24605,10 +24608,10 @@
         <v>254</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N191" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O191" t="s" s="2">
         <v>78</v>
@@ -24669,13 +24672,13 @@
         <v>78</v>
       </c>
       <c r="AI191" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AJ191" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AK191" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AL191" t="s" s="2">
         <v>78</v>
@@ -24700,10 +24703,10 @@
       </c>
       <c r="D192" s="2"/>
       <c r="E192" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F192" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G192" t="s" s="2">
         <v>78</v>
@@ -24715,7 +24718,7 @@
         <v>78</v>
       </c>
       <c r="J192" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="K192" t="s" s="2">
         <v>490</v>
@@ -24775,16 +24778,16 @@
         <v>489</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG192" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH192" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI192" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ192" t="s" s="2">
         <v>78</v>
@@ -24815,10 +24818,10 @@
       </c>
       <c r="D193" s="2"/>
       <c r="E193" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F193" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G193" t="s" s="2">
         <v>78</v>
@@ -24894,16 +24897,16 @@
         <v>493</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AG193" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AH193" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AI193" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ193" t="s" s="2">
         <v>78</v>
